--- a/data/output/FV2310_FV2304/MSCONS/13017.xlsx
+++ b/data/output/FV2310_FV2304/MSCONS/13017.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="339">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="339">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -1176,6 +1176,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U173" totalsRowShown="0">
+  <autoFilter ref="A1:U173"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1465,7 +1495,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9565,5 +9598,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/MSCONS/13017.xlsx
+++ b/data/output/FV2310_FV2304/MSCONS/13017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4506" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="503">
   <si>
     <t>#</t>
   </si>
@@ -5897,44 +5897,42 @@
       </c>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K82" s="5"/>
-      <c r="L82" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M82" s="5" t="s">
+      <c r="K82" s="2"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="V82" s="5"/>
+      <c r="V82" s="2"/>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="5" t="s">
@@ -5958,9 +5956,7 @@
         <v>262</v>
       </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="5" t="s">
         <v>38</v>
       </c>
@@ -6008,9 +6004,7 @@
       <c r="K84" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="L84" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>38</v>
       </c>
@@ -6037,48 +6031,46 @@
       </c>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K85" s="5"/>
-      <c r="L85" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M85" s="5" t="s">
+      <c r="K85" s="2"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N85" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O85" s="5" t="s">
+      <c r="O85" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5" t="s">
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="V85" s="5"/>
+      <c r="V85" s="2"/>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="5" t="s">
@@ -6104,9 +6096,7 @@
         <v>286</v>
       </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="5" t="s">
         <v>39</v>
       </c>
@@ -6156,9 +6146,7 @@
       <c r="K87" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="L87" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>39</v>
       </c>
@@ -6212,9 +6200,7 @@
         <v>263</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>39</v>
       </c>
@@ -6241,44 +6227,42 @@
       <c r="V88" s="5"/>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5" t="s">
+      <c r="C89" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M89" s="5" t="s">
+      <c r="K89" s="2"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N89" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5" t="s">
+      <c r="N89" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="V89" s="5"/>
+      <c r="V89" s="2"/>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="5" t="s">
@@ -6302,9 +6286,7 @@
         <v>262</v>
       </c>
       <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>40</v>
       </c>
@@ -6352,9 +6334,7 @@
         <v>263</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>40</v>
       </c>
@@ -6408,9 +6388,7 @@
         <v>288</v>
       </c>
       <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>40</v>
       </c>
@@ -6466,9 +6444,7 @@
       <c r="K93" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L93" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>40</v>
       </c>
@@ -6524,9 +6500,7 @@
       <c r="K94" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="L94" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>40</v>
       </c>
@@ -6553,50 +6527,48 @@
       </c>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="C95" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5" t="s">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K95" s="5" t="s">
+      <c r="K95" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="L95" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M95" s="5" t="s">
+      <c r="L95" s="4"/>
+      <c r="M95" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N95" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O95" s="5" t="s">
+      <c r="N95" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5" t="s">
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="V95" s="5" t="s">
+      <c r="V95" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6628,9 +6600,7 @@
         <v>263</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>41</v>
       </c>
@@ -6684,9 +6654,7 @@
       <c r="K97" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>41</v>
       </c>
@@ -6740,9 +6708,7 @@
         <v>263</v>
       </c>
       <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>41</v>
       </c>
@@ -6796,9 +6762,7 @@
         <v>263</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>41</v>
       </c>
@@ -6825,50 +6789,48 @@
       <c r="V99" s="5"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="C100" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5" t="s">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K100" s="5" t="s">
+      <c r="K100" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="L100" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M100" s="5" t="s">
+      <c r="L100" s="4"/>
+      <c r="M100" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N100" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O100" s="5" t="s">
+      <c r="N100" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5" t="s">
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V100" s="5" t="s">
+      <c r="V100" s="2" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6900,9 +6862,7 @@
         <v>263</v>
       </c>
       <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>42</v>
       </c>
@@ -6956,9 +6916,7 @@
       <c r="K102" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="L102" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>42</v>
       </c>
@@ -7012,9 +6970,7 @@
         <v>263</v>
       </c>
       <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L103" s="4"/>
       <c r="M103" s="5" t="s">
         <v>42</v>
       </c>
@@ -7041,50 +6997,48 @@
       <c r="V103" s="5"/>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="C104" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5" t="s">
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K104" s="5" t="s">
+      <c r="K104" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="L104" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M104" s="5" t="s">
+      <c r="L104" s="4"/>
+      <c r="M104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N104" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O104" s="5" t="s">
+      <c r="N104" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O104" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-      <c r="U104" s="5" t="s">
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="V104" s="5" t="s">
+      <c r="V104" s="2" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7116,9 +7070,7 @@
         <v>263</v>
       </c>
       <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="5" t="s">
         <v>43</v>
       </c>
@@ -7172,9 +7124,7 @@
       <c r="K106" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="L106" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L106" s="4"/>
       <c r="M106" s="5" t="s">
         <v>43</v>
       </c>
@@ -7228,9 +7178,7 @@
         <v>263</v>
       </c>
       <c r="K107" s="5"/>
-      <c r="L107" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
         <v>43</v>
       </c>
@@ -7257,50 +7205,48 @@
       <c r="V107" s="5"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5" t="s">
+      <c r="C108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K108" s="5" t="s">
+      <c r="K108" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="L108" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M108" s="5" t="s">
+      <c r="L108" s="4"/>
+      <c r="M108" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N108" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O108" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
-      <c r="U108" s="5" t="s">
+      <c r="N108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="V108" s="5" t="s">
+      <c r="V108" s="2" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7332,9 +7278,7 @@
         <v>263</v>
       </c>
       <c r="K109" s="5"/>
-      <c r="L109" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L109" s="4"/>
       <c r="M109" s="5" t="s">
         <v>44</v>
       </c>
@@ -7388,9 +7332,7 @@
         <v>298</v>
       </c>
       <c r="K110" s="5"/>
-      <c r="L110" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L110" s="4"/>
       <c r="M110" s="5" t="s">
         <v>44</v>
       </c>
@@ -7444,9 +7386,7 @@
         <v>299</v>
       </c>
       <c r="K111" s="5"/>
-      <c r="L111" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L111" s="4"/>
       <c r="M111" s="5" t="s">
         <v>44</v>
       </c>
@@ -7500,9 +7440,7 @@
         <v>299</v>
       </c>
       <c r="K112" s="5"/>
-      <c r="L112" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="5" t="s">
         <v>44</v>
       </c>
@@ -7556,9 +7494,7 @@
         <v>299</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>44</v>
       </c>
@@ -7612,9 +7548,7 @@
         <v>299</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>44</v>
       </c>
@@ -7668,9 +7602,7 @@
         <v>299</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>44</v>
       </c>
@@ -7724,9 +7656,7 @@
         <v>300</v>
       </c>
       <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5" t="s">
         <v>44</v>
       </c>
@@ -7753,50 +7683,48 @@
       <c r="V116" s="5"/>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5" t="s">
+      <c r="C117" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="K117" s="5" t="s">
+      <c r="K117" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="L117" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M117" s="5" t="s">
+      <c r="L117" s="4"/>
+      <c r="M117" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N117" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O117" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5" t="s">
+      <c r="N117" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="V117" s="5" t="s">
+      <c r="V117" s="2" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7828,9 +7756,7 @@
         <v>263</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>45</v>
       </c>
@@ -7884,9 +7810,7 @@
         <v>300</v>
       </c>
       <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L119" s="4"/>
       <c r="M119" s="5" t="s">
         <v>45</v>
       </c>
@@ -7940,9 +7864,7 @@
         <v>300</v>
       </c>
       <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>45</v>
       </c>
@@ -7996,9 +7918,7 @@
         <v>300</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>45</v>
       </c>
@@ -8052,9 +7972,7 @@
         <v>300</v>
       </c>
       <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>45</v>
       </c>
@@ -8081,50 +7999,48 @@
       <c r="V122" s="5"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5" t="s">
+      <c r="C123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="K123" s="5" t="s">
+      <c r="K123" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L123" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M123" s="5" t="s">
+      <c r="L123" s="4"/>
+      <c r="M123" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N123" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O123" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-      <c r="U123" s="5" t="s">
+      <c r="N123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="V123" s="5" t="s">
+      <c r="V123" s="2" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8156,9 +8072,7 @@
         <v>263</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>46</v>
       </c>
@@ -8212,9 +8126,7 @@
         <v>300</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>46</v>
       </c>
@@ -8268,9 +8180,7 @@
         <v>300</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>46</v>
       </c>
@@ -8324,9 +8234,7 @@
         <v>300</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>46</v>
       </c>
@@ -8380,9 +8288,7 @@
         <v>300</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>46</v>
       </c>
@@ -8436,9 +8342,7 @@
         <v>300</v>
       </c>
       <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="5" t="s">
         <v>46</v>
       </c>
@@ -8492,9 +8396,7 @@
         <v>300</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>46</v>
       </c>
@@ -8548,9 +8450,7 @@
         <v>300</v>
       </c>
       <c r="K131" s="5"/>
-      <c r="L131" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>46</v>
       </c>
@@ -8604,9 +8504,7 @@
         <v>300</v>
       </c>
       <c r="K132" s="5"/>
-      <c r="L132" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="5" t="s">
         <v>46</v>
       </c>
@@ -8660,9 +8558,7 @@
         <v>300</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>46</v>
       </c>
@@ -8716,9 +8612,7 @@
         <v>300</v>
       </c>
       <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5" t="s">
         <v>46</v>
       </c>
@@ -8772,9 +8666,7 @@
         <v>300</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>46</v>
       </c>
@@ -8828,9 +8720,7 @@
         <v>303</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>46</v>
       </c>
@@ -8884,9 +8774,7 @@
         <v>303</v>
       </c>
       <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L137" s="4"/>
       <c r="M137" s="5" t="s">
         <v>46</v>
       </c>
@@ -8940,9 +8828,7 @@
         <v>303</v>
       </c>
       <c r="K138" s="5"/>
-      <c r="L138" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>46</v>
       </c>
@@ -8996,9 +8882,7 @@
         <v>303</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>46</v>
       </c>
@@ -9052,9 +8936,7 @@
         <v>303</v>
       </c>
       <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="5" t="s">
         <v>46</v>
       </c>
@@ -9108,9 +8990,7 @@
         <v>303</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>46</v>
       </c>
@@ -9164,9 +9044,7 @@
         <v>303</v>
       </c>
       <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>46</v>
       </c>
@@ -9220,9 +9098,7 @@
         <v>303</v>
       </c>
       <c r="K143" s="5"/>
-      <c r="L143" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>46</v>
       </c>
@@ -9276,9 +9152,7 @@
         <v>300</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>46</v>
       </c>
@@ -9305,50 +9179,48 @@
       <c r="V144" s="5"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5" t="s">
+      <c r="C145" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="K145" s="5" t="s">
+      <c r="K145" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="L145" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M145" s="5" t="s">
+      <c r="L145" s="4"/>
+      <c r="M145" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N145" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O145" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5" t="s">
+      <c r="N145" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="V145" s="5" t="s">
+      <c r="V145" s="2" t="s">
         <v>328</v>
       </c>
     </row>
@@ -9380,9 +9252,7 @@
         <v>263</v>
       </c>
       <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>47</v>
       </c>
@@ -9436,9 +9306,7 @@
         <v>300</v>
       </c>
       <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L147" s="4"/>
       <c r="M147" s="5" t="s">
         <v>47</v>
       </c>
@@ -9492,9 +9360,7 @@
         <v>300</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>47</v>
       </c>
@@ -9548,9 +9414,7 @@
         <v>300</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>47</v>
       </c>
@@ -9604,9 +9468,7 @@
         <v>300</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>47</v>
       </c>
@@ -9660,9 +9522,7 @@
         <v>300</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>47</v>
       </c>
@@ -9716,9 +9576,7 @@
         <v>300</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>47</v>
       </c>
@@ -9772,9 +9630,7 @@
         <v>300</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>47</v>
       </c>
@@ -9828,9 +9684,7 @@
         <v>300</v>
       </c>
       <c r="K154" s="5"/>
-      <c r="L154" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>47</v>
       </c>
@@ -9884,9 +9738,7 @@
         <v>300</v>
       </c>
       <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>47</v>
       </c>
@@ -9940,9 +9792,7 @@
         <v>300</v>
       </c>
       <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>47</v>
       </c>
@@ -9996,9 +9846,7 @@
         <v>300</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>47</v>
       </c>
@@ -10052,9 +9900,7 @@
         <v>300</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>47</v>
       </c>
@@ -10108,9 +9954,7 @@
         <v>300</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>47</v>
       </c>
@@ -10164,9 +10008,7 @@
         <v>300</v>
       </c>
       <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>47</v>
       </c>
@@ -10220,9 +10062,7 @@
         <v>300</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>47</v>
       </c>
@@ -10276,9 +10116,7 @@
         <v>300</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>47</v>
       </c>
@@ -10332,9 +10170,7 @@
         <v>300</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>47</v>
       </c>
@@ -10388,9 +10224,7 @@
         <v>300</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>47</v>
       </c>
@@ -10444,9 +10278,7 @@
         <v>300</v>
       </c>
       <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>47</v>
       </c>
@@ -10500,9 +10332,7 @@
         <v>300</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>47</v>
       </c>
@@ -10571,44 +10401,42 @@
       <c r="V167" s="9"/>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5" t="s">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5" t="s">
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M168" s="5" t="s">
+      <c r="K168" s="2"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N168" s="5"/>
-      <c r="O168" s="5" t="s">
+      <c r="N168" s="2"/>
+      <c r="O168" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P168" s="5"/>
-      <c r="Q168" s="5"/>
-      <c r="R168" s="5"/>
-      <c r="S168" s="5"/>
-      <c r="T168" s="5"/>
-      <c r="U168" s="5" t="s">
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="V168" s="5"/>
+      <c r="V168" s="2"/>
     </row>
     <row r="169" spans="1:22">
       <c r="A169" s="5" t="s">
@@ -10634,9 +10462,7 @@
         <v>263</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>48</v>
       </c>
@@ -10682,9 +10508,7 @@
         <v>263</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>48</v>
       </c>
@@ -10707,44 +10531,42 @@
       <c r="V170" s="5"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5" t="s">
+      <c r="C171" s="2"/>
+      <c r="D171" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5" t="s">
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M171" s="5" t="s">
+      <c r="K171" s="2"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N171" s="5"/>
-      <c r="O171" s="5" t="s">
+      <c r="N171" s="2"/>
+      <c r="O171" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P171" s="5"/>
-      <c r="Q171" s="5"/>
-      <c r="R171" s="5"/>
-      <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
-      <c r="U171" s="5" t="s">
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="V171" s="5"/>
+      <c r="V171" s="2"/>
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="5" t="s">
@@ -10770,9 +10592,7 @@
         <v>263</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>49</v>
       </c>
@@ -10818,9 +10638,7 @@
         <v>263</v>
       </c>
       <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="L173" s="4"/>
       <c r="M173" s="5" t="s">
         <v>49</v>
       </c>

--- a/data/output/FV2310_FV2304/MSCONS/13017.xlsx
+++ b/data/output/FV2310_FV2304/MSCONS/13017.xlsx
@@ -2123,7 +2123,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="2"/>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="2"/>
@@ -3443,7 +3443,7 @@
         <v>306</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3635,7 +3635,7 @@
         <v>308</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N65" s="2"/>
@@ -5217,7 +5217,7 @@
         <v>311</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5507,21 +5507,21 @@
       </c>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
       <c r="J74" s="6" t="s">
         <v>262</v>
       </c>
@@ -5529,18 +5529,18 @@
       <c r="L74" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
       <c r="U74" s="6" t="s">
         <v>336</v>
       </c>
@@ -5703,23 +5703,23 @@
       <c r="V77" s="6"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
       <c r="J78" s="6" t="s">
         <v>283</v>
       </c>
@@ -5729,18 +5729,18 @@
       <c r="L78" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>55</v>
       </c>
       <c r="O78" s="6"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
       <c r="U78" s="6" t="s">
         <v>337</v>
       </c>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6551,7 +6551,7 @@
         <v>321</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6813,7 +6813,7 @@
         <v>323</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7021,7 +7021,7 @@
         <v>325</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7229,7 +7229,7 @@
         <v>327</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7707,7 +7707,7 @@
         <v>328</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8023,7 +8023,7 @@
         <v>329</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -9203,7 +9203,7 @@
         <v>328</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N168" s="2"/>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N171" s="2"/>
